--- a/transformacion/staging/fact_proyectos_regalias.xlsx
+++ b/transformacion/staging/fact_proyectos_regalias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Nombre Proyecto_x</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>BENEFICIARIOS</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
   </si>
   <si>
     <t>FORTALECIMIENTO DE LAS HABILIDADES COMUNICATIVAS EN INGLÉS DE LOS ESTUDINATES DE INSTITUCIONES EDUCATIVAS OFICIALES DEL VALLE DEL CAUCA</t>
@@ -467,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,13 +513,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -522,30 +534,36 @@
         <v>2024003760004</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -557,53 +575,65 @@
         <v>18051289322.9</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -615,30 +645,36 @@
         <v>4929335426</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -650,22 +686,28 @@
         <v>5712917221</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
